--- a/NEET_2024_Excel/Individual_Excel/231904.xlsx
+++ b/NEET_2024_Excel/Individual_Excel/231904.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="8">
   <si>
     <t>Srlno.</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3580,270 +3580,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
-      <c r="C188" t="s">
-        <v>5</v>
-      </c>
-      <c r="D188" t="s">
-        <v>6</v>
-      </c>
-      <c r="E188" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="C189" t="s">
-        <v>5</v>
-      </c>
-      <c r="D189" t="s">
-        <v>6</v>
-      </c>
-      <c r="E189" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="C190" t="s">
-        <v>5</v>
-      </c>
-      <c r="D190" t="s">
-        <v>6</v>
-      </c>
-      <c r="E190" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="C191" t="s">
-        <v>5</v>
-      </c>
-      <c r="D191" t="s">
-        <v>6</v>
-      </c>
-      <c r="E191" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="C192" t="s">
-        <v>5</v>
-      </c>
-      <c r="D192" t="s">
-        <v>6</v>
-      </c>
-      <c r="E192" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5">
-      <c r="C193" t="s">
-        <v>5</v>
-      </c>
-      <c r="D193" t="s">
-        <v>6</v>
-      </c>
-      <c r="E193" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="3:5">
-      <c r="C194" t="s">
-        <v>5</v>
-      </c>
-      <c r="D194" t="s">
-        <v>6</v>
-      </c>
-      <c r="E194" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="3:5">
-      <c r="C195" t="s">
-        <v>5</v>
-      </c>
-      <c r="D195" t="s">
-        <v>6</v>
-      </c>
-      <c r="E195" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="3:5">
-      <c r="C196" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" t="s">
-        <v>6</v>
-      </c>
-      <c r="E196" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="3:5">
-      <c r="C197" t="s">
-        <v>5</v>
-      </c>
-      <c r="D197" t="s">
-        <v>6</v>
-      </c>
-      <c r="E197" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="3:5">
-      <c r="C198" t="s">
-        <v>5</v>
-      </c>
-      <c r="D198" t="s">
-        <v>6</v>
-      </c>
-      <c r="E198" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="3:5">
-      <c r="C199" t="s">
-        <v>5</v>
-      </c>
-      <c r="D199" t="s">
-        <v>6</v>
-      </c>
-      <c r="E199" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="200" spans="3:5">
-      <c r="C200" t="s">
-        <v>5</v>
-      </c>
-      <c r="D200" t="s">
-        <v>6</v>
-      </c>
-      <c r="E200" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5">
-      <c r="C201" t="s">
-        <v>5</v>
-      </c>
-      <c r="D201" t="s">
-        <v>6</v>
-      </c>
-      <c r="E201" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="3:5">
-      <c r="C202" t="s">
-        <v>5</v>
-      </c>
-      <c r="D202" t="s">
-        <v>6</v>
-      </c>
-      <c r="E202" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5">
-      <c r="C203" t="s">
-        <v>5</v>
-      </c>
-      <c r="D203" t="s">
-        <v>6</v>
-      </c>
-      <c r="E203" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5">
-      <c r="C204" t="s">
-        <v>5</v>
-      </c>
-      <c r="D204" t="s">
-        <v>6</v>
-      </c>
-      <c r="E204" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5">
-      <c r="C205" t="s">
-        <v>5</v>
-      </c>
-      <c r="D205" t="s">
-        <v>6</v>
-      </c>
-      <c r="E205" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5">
-      <c r="C206" t="s">
-        <v>5</v>
-      </c>
-      <c r="D206" t="s">
-        <v>6</v>
-      </c>
-      <c r="E206" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5">
-      <c r="C207" t="s">
-        <v>5</v>
-      </c>
-      <c r="D207" t="s">
-        <v>6</v>
-      </c>
-      <c r="E207" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5">
-      <c r="C208" t="s">
-        <v>5</v>
-      </c>
-      <c r="D208" t="s">
-        <v>6</v>
-      </c>
-      <c r="E208" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="3:5">
-      <c r="C209" t="s">
-        <v>5</v>
-      </c>
-      <c r="D209" t="s">
-        <v>6</v>
-      </c>
-      <c r="E209" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="3:5">
-      <c r="C210" t="s">
-        <v>5</v>
-      </c>
-      <c r="D210" t="s">
-        <v>6</v>
-      </c>
-      <c r="E210" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="3:5">
-      <c r="C211" t="s">
-        <v>5</v>
-      </c>
-      <c r="D211" t="s">
-        <v>6</v>
-      </c>
-      <c r="E211" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
